--- a/Compressores.xlsx
+++ b/Compressores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacDutraPalmont\Downloads\APP spool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B730D28-1A4F-45E3-8786-14D24B22A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD2BAB-8888-4C79-BD63-D877459F8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,9 +402,133 @@
         <strike val="0"/>
         <u val="none"/>
         <sz val="8"/>
+        <color rgb="FF6D6D6D"/>
+        <name val="Segoe UI"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <name val="Segoe UI"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFA0A0A0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA0A0A0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA0A0A0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA0A0A0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FFA0A0A0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA0A0A0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA0A0A0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA0A0A0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FFA0A0A0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA0A0A0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA0A0A0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA0A0A0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
@@ -445,7 +569,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
@@ -631,46 +754,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFA0A0A0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA0A0A0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFA0A0A0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFA0A0A0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <sz val="8"/>
         <color rgb="FF000000"/>
@@ -781,88 +864,6 @@
         <strike val="0"/>
         <u val="none"/>
         <sz val="8"/>
-        <color rgb="FF6D6D6D"/>
-        <name val="Segoe UI"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0C0C0"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <left style="thin">
-          <color rgb="FFA0A0A0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA0A0A0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFA0A0A0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFA0A0A0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <left style="thin">
-          <color rgb="FFA0A0A0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA0A0A0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFA0A0A0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFA0A0A0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
         <color rgb="FF000000"/>
         <name val="Segoe UI"/>
       </font>
@@ -1017,20 +1018,20 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ISOMÉTRICO" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SPOOL" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ÁREA" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{32FD746C-85D3-4B32-B68B-4D9DC224376E}" name="REV" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MATERIAL" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PROG FAB" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6A63A945-E545-41E7-A0DA-52B84716C3DB}" name="EXECUTANTE FAB" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="PESO" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B145779C-0D93-40BB-8E56-F6B5E5B3EC9A}" name="LINHA" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5C91DFEC-9C7C-4822-9B04-069B162F0B85}" name="COND PINT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32FD746C-85D3-4B32-B68B-4D9DC224376E}" name="REV" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MATERIAL" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PROG FAB" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6A63A945-E545-41E7-A0DA-52B84716C3DB}" name="EXECUTANTE FAB" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="PESO" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B145779C-0D93-40BB-8E56-F6B5E5B3EC9A}" name="LINHA" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5C91DFEC-9C7C-4822-9B04-069B162F0B85}" name="COND PINT" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{CB6F9033-7A44-4663-9D3F-E63EB7C312A6}" name="DIÂM. NOMINAL" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{31AFC2E5-C817-4C50-B1A6-6C3B3E53696B}" name="ÁREA SUPERF." dataDxfId="1"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="DATA DO ROMANEIO" dataDxfId="12"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="OBS ROMANEIO" dataDxfId="11"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="ID_SPOOL" dataDxfId="0"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="QR" dataDxfId="10">
-      <calculatedColumnFormula>CONCATENATE("2$-",A2,"$ID-",INT(B2))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{31AFC2E5-C817-4C50-B1A6-6C3B3E53696B}" name="ÁREA SUPERF." dataDxfId="4"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="DATA DO ROMANEIO" dataDxfId="3"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="OBS ROMANEIO" dataDxfId="2"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="ID_SPOOL" dataDxfId="1"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="QR" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("2$-", A2, "$ID-", VALUE(SUBSTITUTE(B2, "SP", "")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1357,7 +1358,7 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O77"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1372,8 @@
     <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="12.140625" style="1"/>
+    <col min="16" max="16" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,9 +1470,9 @@
       <c r="O2" s="6">
         <v>65888</v>
       </c>
-      <c r="P2" s="1" t="e">
-        <f>CONCATENATE("2$-",A2,"$ID-",INT(B2))</f>
-        <v>#VALUE!</v>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P33" si="0">CONCATENATE("2$-", A2, "$ID-", VALUE(SUBSTITUTE(B2, "SP", "")))</f>
+        <v>2$-336-API-1600-T-14-15H28$ID-1</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,9 +1519,9 @@
       <c r="O3" s="7">
         <v>65889</v>
       </c>
-      <c r="P3" s="1" t="e">
-        <f t="shared" ref="P3:P61" si="0">CONCATENATE("2$-",A3,"$ID-",INT(B3))</f>
-        <v>#VALUE!</v>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2$-336-API-1600-T-14-15H28$ID-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,9 +1568,9 @@
       <c r="O4" s="6">
         <v>65890</v>
       </c>
-      <c r="P4" s="1" t="e">
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1600-T-14-15H28$ID-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,9 +1617,9 @@
       <c r="O5" s="7">
         <v>65891</v>
       </c>
-      <c r="P5" s="1" t="e">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1601-T-8-15H28$ID-1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,9 +1666,9 @@
       <c r="O6" s="6">
         <v>65892</v>
       </c>
-      <c r="P6" s="1" t="e">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1601-T-8-15H28$ID-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,9 +1715,9 @@
       <c r="O7" s="7">
         <v>65893</v>
       </c>
-      <c r="P7" s="1" t="e">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1601-T-8-15H28$ID-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,9 +1764,9 @@
       <c r="O8" s="6">
         <v>65894</v>
       </c>
-      <c r="P8" s="1" t="e">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1601-T-8-15H28$ID-4</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,9 +1813,9 @@
       <c r="O9" s="7">
         <v>65895</v>
       </c>
-      <c r="P9" s="1" t="e">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1601-T-8-15H28$ID-5</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,9 +1862,9 @@
       <c r="O10" s="6">
         <v>65896</v>
       </c>
-      <c r="P10" s="1" t="e">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1602-T-8-15H28$ID-1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,9 +1911,9 @@
       <c r="O11" s="7">
         <v>65897</v>
       </c>
-      <c r="P11" s="1" t="e">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1602-T-8-15H28$ID-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,9 +1960,9 @@
       <c r="O12" s="6">
         <v>65898</v>
       </c>
-      <c r="P12" s="1" t="e">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1603-T-6-15H28$ID-1</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,9 +2009,9 @@
       <c r="O13" s="7">
         <v>65899</v>
       </c>
-      <c r="P13" s="1" t="e">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1603-T-6-15H28$ID-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,9 +2058,9 @@
       <c r="O14" s="6">
         <v>65900</v>
       </c>
-      <c r="P14" s="1" t="e">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1603-T-6-15H28$ID-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,9 +2107,9 @@
       <c r="O15" s="7">
         <v>65901</v>
       </c>
-      <c r="P15" s="1" t="e">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-1</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,9 +2156,9 @@
       <c r="O16" s="6">
         <v>65902</v>
       </c>
-      <c r="P16" s="1" t="e">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,9 +2205,9 @@
       <c r="O17" s="7">
         <v>65903</v>
       </c>
-      <c r="P17" s="1" t="e">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,9 +2254,9 @@
       <c r="O18" s="6">
         <v>65904</v>
       </c>
-      <c r="P18" s="1" t="e">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-4</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,9 +2303,9 @@
       <c r="O19" s="7">
         <v>65905</v>
       </c>
-      <c r="P19" s="1" t="e">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-5</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,9 +2352,9 @@
       <c r="O20" s="6">
         <v>65906</v>
       </c>
-      <c r="P20" s="1" t="e">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-6</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,9 +2401,9 @@
       <c r="O21" s="7">
         <v>65907</v>
       </c>
-      <c r="P21" s="1" t="e">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-7</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,9 +2450,9 @@
       <c r="O22" s="6">
         <v>65908</v>
       </c>
-      <c r="P22" s="1" t="e">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-8</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,9 +2499,9 @@
       <c r="O23" s="7">
         <v>65909</v>
       </c>
-      <c r="P23" s="1" t="e">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-9</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,9 +2548,9 @@
       <c r="O24" s="6">
         <v>65910</v>
       </c>
-      <c r="P24" s="1" t="e">
+      <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1604-T-6-15H28$ID-10</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,9 +2597,9 @@
       <c r="O25" s="7">
         <v>65911</v>
       </c>
-      <c r="P25" s="1" t="e">
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1605-T-3_4-15H28$ID-1</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,9 +2646,9 @@
       <c r="O26" s="6">
         <v>65912</v>
       </c>
-      <c r="P26" s="1" t="e">
+      <c r="P26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1606-T-3_4-15H28$ID-1</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,9 +2695,9 @@
       <c r="O27" s="7">
         <v>65913</v>
       </c>
-      <c r="P27" s="1" t="e">
+      <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-1</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2742,9 +2744,9 @@
       <c r="O28" s="6">
         <v>65914</v>
       </c>
-      <c r="P28" s="1" t="e">
+      <c r="P28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,9 +2793,9 @@
       <c r="O29" s="7">
         <v>65915</v>
       </c>
-      <c r="P29" s="1" t="e">
+      <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2840,9 +2842,9 @@
       <c r="O30" s="6">
         <v>65916</v>
       </c>
-      <c r="P30" s="1" t="e">
+      <c r="P30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-4</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,9 +2891,9 @@
       <c r="O31" s="7">
         <v>65917</v>
       </c>
-      <c r="P31" s="1" t="e">
+      <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-5</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2938,9 +2940,9 @@
       <c r="O32" s="6">
         <v>65918</v>
       </c>
-      <c r="P32" s="1" t="e">
+      <c r="P32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-6</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,9 +2989,9 @@
       <c r="O33" s="7">
         <v>65919</v>
       </c>
-      <c r="P33" s="1" t="e">
+      <c r="P33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2$-336-API-1607-T-6-15H28$ID-7</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,9 +3038,9 @@
       <c r="O34" s="6">
         <v>65920</v>
       </c>
-      <c r="P34" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P34" s="1" t="str">
+        <f t="shared" ref="P34:P65" si="1">CONCATENATE("2$-", A34, "$ID-", VALUE(SUBSTITUTE(B34, "SP", "")))</f>
+        <v>2$-336-API-1607-T-6-15H28$ID-8</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,9 +3087,9 @@
       <c r="O35" s="7">
         <v>65921</v>
       </c>
-      <c r="P35" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1607-T-6-15H28$ID-9</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,9 +3136,9 @@
       <c r="O36" s="6">
         <v>65922</v>
       </c>
-      <c r="P36" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1607-T-6-15H28$ID-10</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,9 +3185,9 @@
       <c r="O37" s="7">
         <v>66035</v>
       </c>
-      <c r="P37" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1607-T-6-15H28$ID-11</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,9 +3234,9 @@
       <c r="O38" s="6">
         <v>65923</v>
       </c>
-      <c r="P38" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1618-T-3-15H28$ID-1</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3281,9 +3283,9 @@
       <c r="O39" s="7">
         <v>65924</v>
       </c>
-      <c r="P39" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1618-T-3-15H28$ID-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,9 +3332,9 @@
       <c r="O40" s="6">
         <v>65925</v>
       </c>
-      <c r="P40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1618-T-3-15H28$ID-3</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3379,9 +3381,9 @@
       <c r="O41" s="7">
         <v>65926</v>
       </c>
-      <c r="P41" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1619-T-8-15H28$ID-1</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3428,9 +3430,9 @@
       <c r="O42" s="6">
         <v>65927</v>
       </c>
-      <c r="P42" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-API-1619-T-8-15H28$ID-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,9 +3479,9 @@
       <c r="O43" s="7">
         <v>65928</v>
       </c>
-      <c r="P43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1611-T-4-15B40$ID-1</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,9 +3528,9 @@
       <c r="O44" s="6">
         <v>65929</v>
       </c>
-      <c r="P44" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1611-T-4-15B40$ID-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,9 +3577,9 @@
       <c r="O45" s="7">
         <v>65930</v>
       </c>
-      <c r="P45" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1611-T-4-15B40$ID-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3624,9 +3626,9 @@
       <c r="O46" s="6">
         <v>65931</v>
       </c>
-      <c r="P46" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1612-T-3-15B40$ID-1</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,9 +3675,9 @@
       <c r="O47" s="7">
         <v>65932</v>
       </c>
-      <c r="P47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1612-T-3-15B40$ID-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,9 +3724,9 @@
       <c r="O48" s="6">
         <v>65933</v>
       </c>
-      <c r="P48" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1612-T-3-15B40$ID-3</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,9 +3773,9 @@
       <c r="O49" s="7">
         <v>65934</v>
       </c>
-      <c r="P49" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-1</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,9 +3822,9 @@
       <c r="O50" s="6">
         <v>65935</v>
       </c>
-      <c r="P50" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-2</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3869,9 +3871,9 @@
       <c r="O51" s="7">
         <v>65936</v>
       </c>
-      <c r="P51" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-3</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,9 +3920,9 @@
       <c r="O52" s="6">
         <v>65937</v>
       </c>
-      <c r="P52" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-4</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,9 +3969,9 @@
       <c r="O53" s="7">
         <v>65938</v>
       </c>
-      <c r="P53" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-5</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,9 +4018,9 @@
       <c r="O54" s="6">
         <v>65939</v>
       </c>
-      <c r="P54" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1613-T-6-15B40$ID-6</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4065,9 +4067,9 @@
       <c r="O55" s="7">
         <v>65940</v>
       </c>
-      <c r="P55" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1614-T-2-15B40$ID-1</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,9 +4116,9 @@
       <c r="O56" s="6">
         <v>65941</v>
       </c>
-      <c r="P56" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRR-1616-T-2-15B40$ID-1</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4163,9 +4165,9 @@
       <c r="O57" s="7">
         <v>65942</v>
       </c>
-      <c r="P57" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-1</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,9 +4214,9 @@
       <c r="O58" s="6">
         <v>65943</v>
       </c>
-      <c r="P58" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4261,9 +4263,9 @@
       <c r="O59" s="7">
         <v>65944</v>
       </c>
-      <c r="P59" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-3</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4310,9 +4312,9 @@
       <c r="O60" s="6">
         <v>65945</v>
       </c>
-      <c r="P60" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-4</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4359,9 +4361,9 @@
       <c r="O61" s="7">
         <v>65946</v>
       </c>
-      <c r="P61" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-5</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,9 +4410,9 @@
       <c r="O62" s="6">
         <v>65947</v>
       </c>
-      <c r="P62" s="1" t="e">
-        <f t="shared" ref="P62:P77" si="1">CONCATENATE("2$-",A62,"$ID-",INT(B62))</f>
-        <v>#VALUE!</v>
+      <c r="P62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-6</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,9 +4459,9 @@
       <c r="O63" s="7">
         <v>65948</v>
       </c>
-      <c r="P63" s="1" t="e">
+      <c r="P63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-7</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,9 +4508,9 @@
       <c r="O64" s="6">
         <v>65949</v>
       </c>
-      <c r="P64" s="1" t="e">
+      <c r="P64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2$-336-WRS-1608-T-6-15B40$ID-8</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4555,9 +4557,9 @@
       <c r="O65" s="7">
         <v>65950</v>
       </c>
-      <c r="P65" s="1" t="e">
+      <c r="P65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2$-336-WRS-1609-T-4-15B40$ID-1</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4604,9 +4606,9 @@
       <c r="O66" s="6">
         <v>65951</v>
       </c>
-      <c r="P66" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P66" s="1" t="str">
+        <f t="shared" ref="P66:P77" si="2">CONCATENATE("2$-", A66, "$ID-", VALUE(SUBSTITUTE(B66, "SP", "")))</f>
+        <v>2$-336-WRS-1609-T-4-15B40$ID-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4653,9 +4655,9 @@
       <c r="O67" s="7">
         <v>65952</v>
       </c>
-      <c r="P67" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1609-T-4-15B40$ID-3</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,9 +4704,9 @@
       <c r="O68" s="6">
         <v>65953</v>
       </c>
-      <c r="P68" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1610-T-3-15B40$ID-1</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4751,9 +4753,9 @@
       <c r="O69" s="7">
         <v>65954</v>
       </c>
-      <c r="P69" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1610-T-3-15B40$ID-2</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,9 +4802,9 @@
       <c r="O70" s="6">
         <v>65955</v>
       </c>
-      <c r="P70" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1610-T-3-15B40$ID-3</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,9 +4851,9 @@
       <c r="O71" s="7">
         <v>65956</v>
       </c>
-      <c r="P71" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1610-T-3-15B40$ID-4</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,9 +4900,9 @@
       <c r="O72" s="6">
         <v>65957</v>
       </c>
-      <c r="P72" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1615-T-6-15B40$ID-1</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4947,9 +4949,9 @@
       <c r="O73" s="7">
         <v>65958</v>
       </c>
-      <c r="P73" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1615-T-6-15B40$ID-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4996,9 +4998,9 @@
       <c r="O74" s="6">
         <v>65959</v>
       </c>
-      <c r="P74" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1615-T-6-15B40$ID-3</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,9 +5047,9 @@
       <c r="O75" s="7">
         <v>65960</v>
       </c>
-      <c r="P75" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1617-T-6-15B40$ID-1</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5094,9 +5096,9 @@
       <c r="O76" s="6">
         <v>65961</v>
       </c>
-      <c r="P76" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1617-T-6-15B40$ID-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5143,9 +5145,9 @@
       <c r="O77" s="7">
         <v>65962</v>
       </c>
-      <c r="P77" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="P77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2$-336-WRS-1617-T-6-15B40$ID-3</v>
       </c>
     </row>
   </sheetData>
